--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household-create.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="228">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -147,15 +147,6 @@
     <t xml:space="preserve">Please use three names.</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vidokezo</t>
-  </si>
-  <si>
     <t xml:space="preserve">select_one gender</t>
   </si>
   <si>
@@ -204,25 +195,28 @@
     <t xml:space="preserve">floor( difference-in-months( . , today() ) div 12 ) &gt;=10 and floor( difference-in-months( . , today() ) div 12 ) &lt;= 100</t>
   </si>
   <si>
+    <t xml:space="preserve">Date of birth cannot be a future date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../dob_known = 'no'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. &gt;= 10 and . &lt;= 100</t>
+  </si>
+  <si>
     <t xml:space="preserve">Age must be between 10 and 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../dob_known = 'no'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. &gt;= 10 and . &lt;= 100</t>
   </si>
   <si>
     <t xml:space="preserve">calculate</t>
@@ -540,6 +534,9 @@
   </si>
   <si>
     <t xml:space="preserve">Je, kuna uhusiano gani na mkuu wa kaya?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
   </si>
   <si>
     <t xml:space="preserve">relationship_to_pc_other</t>
@@ -1109,10 +1106,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.43"/>
@@ -1502,17 +1499,21 @@
         <v>41</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -1523,23 +1524,23 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1547,63 +1548,67 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N15" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -1613,31 +1618,23 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>65</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -1645,7 +1642,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>68</v>
@@ -1659,7 +1656,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="11" t="s">
         <v>69</v>
       </c>
       <c r="K19" s="11"/>
@@ -1667,23 +1664,21 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="11" t="s">
+    <row r="20" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15" t="s">
         <v>71</v>
       </c>
       <c r="K20" s="11"/>
@@ -1691,96 +1686,98 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="15" t="s">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="C21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="L21" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="17"/>
       <c r="I22" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="14" t="s">
         <v>86</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1793,40 +1790,55 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+    <row r="25" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="ALX25" s="0"/>
+      <c r="ALY25" s="0"/>
+      <c r="ALZ25" s="0"/>
+      <c r="AMA25" s="0"/>
+      <c r="AMB25" s="0"/>
+      <c r="AMC25" s="0"/>
+      <c r="AMD25" s="0"/>
+      <c r="AME25" s="0"/>
+      <c r="AMF25" s="0"/>
+      <c r="AMG25" s="0"/>
+      <c r="AMH25" s="0"/>
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="G26" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -1848,51 +1860,36 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="ALX27" s="0"/>
-      <c r="ALY27" s="0"/>
-      <c r="ALZ27" s="0"/>
-      <c r="AMA27" s="0"/>
-      <c r="AMB27" s="0"/>
-      <c r="AMC27" s="0"/>
-      <c r="AMD27" s="0"/>
-      <c r="AME27" s="0"/>
-      <c r="AMF27" s="0"/>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>17</v>
@@ -1908,15 +1905,15 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>17</v>
@@ -1931,94 +1928,94 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="11" t="s">
-        <v>26</v>
+      <c r="N29" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="J30" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="A32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -2028,129 +2025,133 @@
       <c r="N33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="D34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="G35" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>48</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
+      <c r="A37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -2161,24 +2162,20 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -2187,39 +2184,37 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="10" t="s">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -2229,16 +2224,20 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
+      <c r="L41" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
+      <c r="N41" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>17</v>
@@ -2251,12 +2250,10 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2264,7 +2261,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>17</v>
@@ -2277,85 +2274,87 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
+      <c r="L43" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="M43" s="11"/>
-      <c r="N43" s="11" t="s">
-        <v>26</v>
+      <c r="N43" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M44" s="11"/>
-      <c r="N44" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="L44" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M44" s="20"/>
+      <c r="N44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="J45" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="K45" s="11"/>
-      <c r="L45" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="M45" s="20"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
@@ -2363,21 +2362,23 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -2389,27 +2390,25 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="J48" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
@@ -2417,25 +2416,27 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="G49" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
-        <v>128</v>
-      </c>
+      <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
@@ -2443,10 +2444,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>131</v>
@@ -2457,9 +2458,11 @@
       <c r="E50" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="G50" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -2471,28 +2474,30 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F51" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="I51" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -2501,76 +2506,70 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
+      <c r="L52" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>140</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" s="11"/>
-      <c r="L53" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
+      <c r="N53" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>17</v>
@@ -2581,19 +2580,17 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="11" t="n">
-        <v>0</v>
+      <c r="J54" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="N54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>144</v>
@@ -2617,7 +2614,7 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>146</v>
@@ -2641,10 +2638,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>17</v>
@@ -2656,7 +2653,7 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
@@ -2665,10 +2662,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>17</v>
@@ -2680,7 +2677,7 @@
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
@@ -2689,10 +2686,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>17</v>
@@ -2704,7 +2701,7 @@
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
@@ -2713,7 +2710,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>152</v>
@@ -2737,23 +2734,26 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="F61" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
@@ -2761,47 +2761,53 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="F62" s="21" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="F62" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="H62" s="22" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
+      <c r="L62" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="22" t="n">
@@ -2809,66 +2815,61 @@
         <v>1</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11" t="s">
-        <v>162</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="22" t="n">
-        <f aca="false">1</f>
-        <v>1</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>163</v>
-      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
-      <c r="L64" s="11" t="s">
-        <v>164</v>
-      </c>
+      <c r="L64" s="11"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -2880,23 +2881,19 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>175</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -2907,89 +2904,66 @@
       <c r="N66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
+      <c r="D68" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+      <c r="A69" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-    </row>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3004,20 +2978,20 @@
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3880,7 +3854,7 @@
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3921,7 +3895,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A18:A20">
+  <conditionalFormatting sqref="A17:A19">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -3947,7 +3921,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -3960,7 +3934,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -3993,16 +3967,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>184</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -4026,16 +4000,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>186</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>187</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -4059,16 +4033,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
@@ -4092,16 +4066,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>192</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>193</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -4125,16 +4099,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -4158,16 +4132,16 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>186</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>187</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -4191,16 +4165,16 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="D8" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>199</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4224,16 +4198,16 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>200</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>201</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -4257,16 +4231,16 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>203</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>204</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4290,16 +4264,16 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>206</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>207</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4323,16 +4297,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>209</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>210</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4356,16 +4330,16 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>212</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>213</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -4389,30 +4363,30 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="D14" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="D15" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5422,7 +5396,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.47"/>
@@ -5437,19 +5411,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="24"/>
@@ -5474,20 +5448,20 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>225</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>226</v>
       </c>
       <c r="C2" s="29" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-06-07  17-59</v>
+        <v>2023-06-22  16-07</v>
       </c>
       <c r="D2" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>227</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>228</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household-create.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="229">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -147,6 +147,15 @@
     <t xml:space="preserve">Please use three names.</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidokezo</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_one gender</t>
   </si>
   <si>
@@ -195,7 +204,7 @@
     <t xml:space="preserve">floor( difference-in-months( . , today() ) div 12 ) &gt;=10 and floor( difference-in-months( . , today() ) div 12 ) &lt;= 100</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of birth cannot be a future date</t>
+    <t xml:space="preserve">Age must be between 10 and 100</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -214,9 +223,6 @@
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 10 and . &lt;= 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be between 10 and 100</t>
   </si>
   <si>
     <t xml:space="preserve">calculate</t>
@@ -534,9 +540,6 @@
   </si>
   <si>
     <t xml:space="preserve">Je, kuna uhusiano gani na mkuu wa kaya?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
   </si>
   <si>
     <t xml:space="preserve">relationship_to_pc_other</t>
@@ -1106,10 +1109,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.43"/>
@@ -1499,21 +1502,17 @@
         <v>41</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -1524,23 +1523,23 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1548,67 +1547,63 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N16" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -1618,23 +1613,31 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="I18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>68</v>
@@ -1656,7 +1659,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="14" t="s">
         <v>69</v>
       </c>
       <c r="K19" s="11"/>
@@ -1664,21 +1667,23 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="15" t="s">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15" t="s">
+      <c r="C20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11" t="s">
         <v>71</v>
       </c>
       <c r="K20" s="11"/>
@@ -1686,98 +1691,96 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+    <row r="21" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="11" t="s">
-        <v>77</v>
-      </c>
+      <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="17"/>
       <c r="I22" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="L23" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D24" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1790,55 +1793,40 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="ALX25" s="0"/>
-      <c r="ALY25" s="0"/>
-      <c r="ALZ25" s="0"/>
-      <c r="AMA25" s="0"/>
-      <c r="AMB25" s="0"/>
-      <c r="AMC25" s="0"/>
-      <c r="AMD25" s="0"/>
-      <c r="AME25" s="0"/>
-      <c r="AMF25" s="0"/>
-      <c r="AMG25" s="0"/>
-      <c r="AMH25" s="0"/>
-      <c r="AMI25" s="0"/>
-      <c r="AMJ25" s="0"/>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>89</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -1860,36 +1848,51 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11" t="s">
-        <v>32</v>
-      </c>
+    <row r="27" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="ALX27" s="0"/>
+      <c r="ALY27" s="0"/>
+      <c r="ALZ27" s="0"/>
+      <c r="AMA27" s="0"/>
+      <c r="AMB27" s="0"/>
+      <c r="AMC27" s="0"/>
+      <c r="AMD27" s="0"/>
+      <c r="AME27" s="0"/>
+      <c r="AMF27" s="0"/>
+      <c r="AMG27" s="0"/>
+      <c r="AMH27" s="0"/>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>17</v>
@@ -1905,15 +1908,15 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>17</v>
@@ -1928,94 +1931,94 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="13" t="s">
-        <v>35</v>
+      <c r="N29" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="11" t="s">
-        <v>92</v>
-      </c>
+      <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="N30" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="J31" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="A32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -2025,133 +2028,129 @@
       <c r="N33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>106</v>
-      </c>
+      <c r="F35" s="11"/>
       <c r="G35" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
+      <c r="L35" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="M35" s="11"/>
       <c r="N35" s="11" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
+      <c r="N36" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="A37" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -2162,20 +2161,24 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -2184,37 +2187,39 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="11" t="s">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -2224,20 +2229,16 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="N41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>17</v>
@@ -2250,10 +2251,12 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
+      <c r="L42" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2261,7 +2264,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>17</v>
@@ -2274,87 +2277,85 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="L43" s="11"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="13" t="s">
-        <v>120</v>
+      <c r="N43" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="M44" s="20"/>
-      <c r="N44" s="11"/>
+      <c r="L44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="11"/>
+      <c r="N44" s="13" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
-      <c r="J45" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="L45" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45" s="20"/>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>124</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
+      <c r="J46" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
@@ -2362,23 +2363,21 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="D47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -2390,25 +2389,27 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11" t="s">
-        <v>126</v>
-      </c>
+      <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
@@ -2416,27 +2417,25 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="J49" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
@@ -2444,10 +2443,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>131</v>
@@ -2458,11 +2457,9 @@
       <c r="E50" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>133</v>
-      </c>
+      <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -2474,30 +2471,28 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I51" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="G51" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -2506,70 +2501,76 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-      <c r="L52" s="11" t="s">
-        <v>140</v>
-      </c>
+      <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
+      <c r="L53" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="M53" s="11"/>
-      <c r="N53" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="N53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>17</v>
@@ -2580,17 +2581,19 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="11" t="s">
-        <v>143</v>
+      <c r="J54" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
+      <c r="N54" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>144</v>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>146</v>
@@ -2638,10 +2641,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>17</v>
@@ -2653,7 +2656,7 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
@@ -2662,10 +2665,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>17</v>
@@ -2677,7 +2680,7 @@
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
@@ -2686,10 +2689,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>17</v>
@@ -2701,7 +2704,7 @@
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
@@ -2710,7 +2713,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>152</v>
@@ -2734,26 +2737,23 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>156</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="21" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
+      <c r="J61" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
@@ -2761,53 +2761,47 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="E62" s="11"/>
-      <c r="F62" s="11" t="s">
-        <v>160</v>
+      <c r="F62" s="21" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G62" s="11"/>
-      <c r="H62" s="22" t="n">
-        <f aca="false">1</f>
-        <v>1</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>161</v>
-      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="11" t="s">
-        <v>162</v>
-      </c>
+      <c r="L62" s="11"/>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="22" t="n">
@@ -2815,61 +2809,66 @@
         <v>1</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="D64" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="H64" s="22" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
+      <c r="L64" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="D65" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>174</v>
-      </c>
+      <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -2881,19 +2880,23 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="C66" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -2904,66 +2907,89 @@
       <c r="N66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="14" t="s">
+      <c r="A68" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
+      <c r="D69" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+    </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2978,20 +3004,20 @@
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3854,7 +3880,7 @@
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3895,7 +3921,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A17:A19">
+  <conditionalFormatting sqref="A18:A20">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -3921,7 +3947,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -3934,7 +3960,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -3967,16 +3993,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -4000,16 +4026,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -4033,16 +4059,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
@@ -4066,16 +4092,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -4099,16 +4125,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -4132,16 +4158,16 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -4165,16 +4191,16 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4198,16 +4224,16 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -4231,16 +4257,16 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4264,16 +4290,16 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -4297,16 +4323,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4330,16 +4356,16 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -4363,30 +4389,30 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5396,7 +5422,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.47"/>
@@ -5411,19 +5437,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="24"/>
@@ -5448,20 +5474,20 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="29" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-06-22  16-07</v>
+        <v>2023-06-07  17-59</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household-create.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="249">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -129,31 +129,28 @@
     <t xml:space="preserve">mandatory</t>
   </si>
   <si>
-    <t xml:space="preserve">household</t>
+    <t xml:space="preserve">household_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please use three names.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate</t>
   </si>
   <si>
     <t xml:space="preserve">contact_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please use three names.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vidokezo</t>
+    <t xml:space="preserve">../name</t>
   </si>
   <si>
     <t xml:space="preserve">select_one gender</t>
@@ -183,9 +180,6 @@
     <t xml:space="preserve">Je, ${contact_name} anajua tarehe yake ya kuzaliwa?</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
     <t xml:space="preserve">date</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t xml:space="preserve">. &gt;= 10 and . &lt;= 100</t>
   </si>
   <si>
-    <t xml:space="preserve">calculate</t>
-  </si>
-  <si>
     <t xml:space="preserve">dob_raw</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
     <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
-    <t xml:space="preserve">For example: +254712345678</t>
-  </si>
-  <si>
     <t xml:space="preserve">secondary_phone_number</t>
   </si>
   <si>
@@ -274,15 +262,6 @@
   </si>
   <si>
     <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_screening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_**Please submit a monthly screening form for ${contact_name} after submitting this registration form.**_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_**Tafadhali wasilisha fomu ya uchunguzi wa kila mwezi kwa ${contact_name} baada ya kuwasilisha fomu hii ya usajili.**_</t>
   </si>
   <si>
     <t xml:space="preserve">phone_note</t>
@@ -296,117 +275,138 @@
     <t xml:space="preserve">**Tafadhali thibitisha kuwa nambari za simu ni sahihi**  **Nambari ya Msingi:** ${primary_phone_number}   **Nambari ya Pili:** ${secondary_phone_number}</t>
   </si>
   <si>
+    <t xml:space="preserve">household</t>
+  </si>
+  <si>
     <t xml:space="preserve">Household Information</t>
   </si>
   <si>
     <t xml:space="preserve">Taarifa za Kaya</t>
   </si>
   <si>
+    <t xml:space="preserve">select_one place_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the name of this place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaza jina la eneo hii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_type_translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jr:choice-name(${place_type},'${place_type}')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one generated_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generated_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generated_name_translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jr:choice-name(${generated_name},'${generated_name}')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat-guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Household Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_household_members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there other household members currently living in ${contact_name}'s homestead?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je, kuna wanakaya wengine wanaoishi katika nyumba ya ${contact_name} kwa sasa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can register other household members at a later time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one true_false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to register other household members now? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je, unataka kusajili wanakaya wengine sasa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${other_household_members} = 'yes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please follow the next steps in the next page to add other household members .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tafadhali fuata hatua zinazofuata katika ukurasa unaofuata ili kuongeza wanakaya wengine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../child = 'true'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanakaya Wengine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/data/repeat-guard/child = 'true'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New person information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habari ya mtu mpya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delimiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;hr style="margin:0 auto;"&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Names</t>
   </si>
   <si>
     <t xml:space="preserve">Majina</t>
   </si>
   <si>
-    <t xml:space="preserve">${contact_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geopoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repeat-guard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Household Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_household_members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there other household members currently living in ${contact_name}'s homestead?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je, kuna wanakaya wengine wanaoishi katika nyumba ya ${contact_name} kwa sasa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make sure to register all children under 5 now. You can register other household members at a later time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one true_false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you want to register other household members now? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je, unataka kusajili wanakaya wengine sasa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${other_household_members} = 'yes'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please follow the next steps in the next page to add other household members .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tafadhali fuata hatua zinazofuata katika ukurasa unaofuata ili kuongeza wanakaya wengine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../child = 'true'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repeat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanakaya Wengine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/repeat-guard/child = 'true'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin repeat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New person information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habari ya mtu mpya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delimiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;hr style="margin:0 auto;"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_member</t>
-  </si>
-  <si>
     <t xml:space="preserve">display_name</t>
   </si>
   <si>
-    <t xml:space="preserve">../name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes (optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vidokezo (si lazima)</t>
-  </si>
-  <si>
     <t xml:space="preserve">sex</t>
   </si>
   <si>
@@ -542,6 +542,9 @@
     <t xml:space="preserve">Je, kuna uhusiano gani na mkuu wa kaya?</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
     <t xml:space="preserve">relationship_to_pc_other</t>
   </si>
   <si>
@@ -552,6 +555,9 @@
   </si>
   <si>
     <t xml:space="preserve">../relationship_to_primary_caregiver = 'other'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_screening</t>
   </si>
   <si>
     <t xml:space="preserve">_**Please submit monthly screening form for ${display_name} after submitting this person registration.**_</t>
@@ -615,6 +621,9 @@
     <t xml:space="preserve">Ndiyo</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">family_designation</t>
   </si>
   <si>
@@ -685,6 +694,133 @@
   </si>
   <si>
     <t xml:space="preserve">Zaidi ya 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_health_facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_supervisor_region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kituo cha afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">community_health_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Health Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eneo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${contact_name}'s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Health Facility</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WIlaya ya  ${contact_name}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${contact_name}'s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Supervisor Region</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Kituo cha afya cha  ${contact_name}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${contact_name}'s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Community Health Area</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Eneo ya  ${contact_name}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${contact_name}'s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Household</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -724,7 +860,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -783,8 +919,21 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,13 +943,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFF7CAAC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
     <fill>
@@ -812,13 +961,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4A7D6"/>
-        <bgColor rgb="FF9999FF"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -831,6 +980,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -883,7 +1056,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -964,6 +1137,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -978,10 +1187,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1000,6 +1205,14 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1013,7 +1226,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1035,12 +1248,33 @@
         <diagonal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FFC00000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFC00000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1053,15 +1287,15 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF6A8759"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF3F3F3"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFCFE2F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FFD9D2E9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1071,13 +1305,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF3F3F3"/>
       <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFAFD095"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFCE5CD"/>
+      <rgbColor rgb="FFD0E0E3"/>
+      <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FFB4A7D6"/>
-      <rgbColor rgb="FFF4CCCC"/>
+      <rgbColor rgb="FFF7CAAC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1085,7 +1319,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1107,25 +1341,25 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="50.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="52.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="129.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="17.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28"/>
   </cols>
@@ -1474,16 +1708,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1492,30 +1726,30 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -1523,23 +1757,23 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1551,23 +1785,23 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1575,35 +1809,33 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="E17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -1613,29 +1845,29 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="E18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -1645,10 +1877,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>17</v>
@@ -1660,7 +1892,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -1669,10 +1901,10 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>17</v>
@@ -1684,7 +1916,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -1693,10 +1925,10 @@
     </row>
     <row r="21" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1706,7 +1938,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -1715,72 +1947,66 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1793,40 +2019,55 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+    <row r="25" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="ALX25" s="0"/>
+      <c r="ALY25" s="0"/>
+      <c r="ALZ25" s="0"/>
+      <c r="AMA25" s="0"/>
+      <c r="AMB25" s="0"/>
+      <c r="AMC25" s="0"/>
+      <c r="AMD25" s="0"/>
+      <c r="AME25" s="0"/>
+      <c r="AMF25" s="0"/>
+      <c r="AMG25" s="0"/>
+      <c r="AMH25" s="0"/>
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="G26" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -1848,51 +2089,36 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="19" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="ALX27" s="0"/>
-      <c r="ALY27" s="0"/>
-      <c r="ALZ27" s="0"/>
-      <c r="AMA27" s="0"/>
-      <c r="AMB27" s="0"/>
-      <c r="AMC27" s="0"/>
-      <c r="AMD27" s="0"/>
-      <c r="AME27" s="0"/>
-      <c r="AMF27" s="0"/>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>17</v>
@@ -1908,15 +2134,15 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>17</v>
@@ -1931,275 +2157,345 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="11" t="s">
-        <v>26</v>
+      <c r="N29" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" s="24"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="27"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="D32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="O32" s="24"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="27"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="B34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10" t="s">
+      <c r="B36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
+      <c r="L37" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
+      <c r="N37" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="A38" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>119</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -2211,63 +2507,67 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="11" t="s">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -2279,16 +2579,14 @@
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>17</v>
@@ -2305,44 +2603,40 @@
         <v>34</v>
       </c>
       <c r="M44" s="11"/>
-      <c r="N44" s="13" t="s">
-        <v>122</v>
+      <c r="N44" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="M45" s="20"/>
-      <c r="N45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>17</v>
@@ -2353,63 +2647,63 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="J46" s="11"/>
       <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
+      <c r="L46" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N46" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
+      <c r="L47" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" s="29"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="J48" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
@@ -2417,25 +2711,27 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="G49" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
-        <v>128</v>
-      </c>
+      <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
@@ -2443,27 +2739,25 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
+      <c r="J50" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
@@ -2471,25 +2765,23 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>135</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F51" s="11"/>
       <c r="G51" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -2501,30 +2793,28 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>138</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
@@ -2533,70 +2823,76 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>138</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="H54" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
+      <c r="L54" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="M54" s="11"/>
-      <c r="N54" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="N54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>17</v>
@@ -2607,20 +2903,22 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="11" t="s">
-        <v>145</v>
+      <c r="J55" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
+      <c r="N55" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>17</v>
@@ -2632,7 +2930,7 @@
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
@@ -2641,10 +2939,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>17</v>
@@ -2656,7 +2954,7 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
@@ -2665,10 +2963,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>17</v>
@@ -2680,7 +2978,7 @@
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
@@ -2689,10 +2987,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>17</v>
@@ -2704,7 +3002,7 @@
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
@@ -2713,10 +3011,10 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>17</v>
@@ -2728,7 +3026,7 @@
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
@@ -2737,10 +3035,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>17</v>
@@ -2752,7 +3050,7 @@
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
@@ -2761,26 +3059,23 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>158</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="21" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
+      <c r="J62" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
@@ -2788,56 +3083,50 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
-        <v>162</v>
+      <c r="F63" s="30" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="22" t="n">
-        <f aca="false">1</f>
-        <v>1</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>163</v>
-      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="11" t="s">
-        <v>164</v>
-      </c>
+      <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G64" s="11"/>
-      <c r="H64" s="22" t="n">
+      <c r="H64" s="31" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
@@ -2854,49 +3143,54 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="H65" s="31" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
+      <c r="L65" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>175</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -2908,19 +3202,23 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="C67" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -2931,66 +3229,89 @@
       <c r="N67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
+      <c r="D68" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" s="14" t="s">
+      <c r="A69" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+    </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3005,20 +3326,20 @@
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3881,7 +4202,7 @@
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3921,9 +4242,14 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A18:A20">
+  <conditionalFormatting sqref="A18:A20 A30:A33">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A33">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3941,13 +4267,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W1048576"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -3959,10 +4285,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3971,458 +4297,727 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
+      <c r="C2" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="D6" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="A8" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="B8" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
+      <c r="A9" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
+      <c r="A10" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
+      <c r="A11" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
+      <c r="A12" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
+      <c r="A13" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>215</v>
+      <c r="B14" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>218</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>218</v>
+      <c r="B15" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>221</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+    </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5422,7 +6017,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.47"/>
@@ -5437,78 +6032,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="29" t="str">
+      <c r="A2" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="39" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-06-07  17-59</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
+        <v>2023-07-31  15-12</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household-create.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household-create.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="252">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -91,10 +91,10 @@
     <t xml:space="preserve">contact_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jina</t>
+    <t xml:space="preserve">Name of household head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jina la mkuu wa kaya</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -148,7 +148,22 @@
     <t xml:space="preserve">floor( difference-in-months( . , today() ) div 12 ) &gt;=10 and floor( difference-in-months( . , today() ) div 12 ) &lt;= 100</t>
   </si>
   <si>
-    <t xml:space="preserve">Age must be between 10 and 100</t>
+    <t xml:space="preserve">You've chosen a future date.  Future date is not allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../dob_known = 'no'</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -157,18 +172,33 @@
     <t xml:space="preserve">age</t>
   </si>
   <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../dob_known = 'no'</t>
+    <t xml:space="preserve">Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miaka</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 10 and . &lt;= 100</t>
   </si>
   <si>
+    <t xml:space="preserve">Please enter a valid age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. &gt;= 1 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months must be between 1 and 11</t>
+  </si>
+  <si>
     <t xml:space="preserve">calculate</t>
   </si>
   <si>
@@ -199,7 +229,7 @@
     <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
-    <t xml:space="preserve">For example: +254712345678</t>
+    <t xml:space="preserve">Use the following format: +254712345678</t>
   </si>
   <si>
     <t xml:space="preserve">sec_phone</t>
@@ -221,9 +251,6 @@
   </si>
   <si>
     <t xml:space="preserve">${sec_phone}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
   </si>
   <si>
     <t xml:space="preserve">phone_note</t>
@@ -255,7 +282,7 @@
     <t xml:space="preserve">contact_type</t>
   </si>
   <si>
-    <t xml:space="preserve">household_contact</t>
+    <t xml:space="preserve">household_member</t>
   </si>
   <si>
     <t xml:space="preserve">date_of_birth</t>
@@ -342,6 +369,15 @@
     <t xml:space="preserve">../child = 'true'</t>
   </si>
   <si>
+    <t xml:space="preserve">n_assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_**Please submit household assessment  form for ${contact_name} after submitting this person registration.**_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_**Tafadhali wasilisha fomu ya kutathmini familia kwa ${contact_name} baada ya kuwasilisha usajili wa mtu huyu.**_</t>
+  </si>
+  <si>
     <t xml:space="preserve">repeat</t>
   </si>
   <si>
@@ -414,7 +450,7 @@
     <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today())) and floor( difference-in-months( . , today() ) div 12 ) &lt;= 100</t>
   </si>
   <si>
-    <t xml:space="preserve">Age must be between 0 and 100</t>
+    <t xml:space="preserve">age_notes</t>
   </si>
   <si>
     <t xml:space="preserve">age_years</t>
@@ -429,6 +465,9 @@
     <t xml:space="preserve">Age in years</t>
   </si>
   <si>
+    <t xml:space="preserve">agen_months</t>
+  </si>
+  <si>
     <t xml:space="preserve">age_months</t>
   </si>
   <si>
@@ -486,12 +525,6 @@
     <t xml:space="preserve">${person_age_years} &gt;=10</t>
   </si>
   <si>
-    <t xml:space="preserve">Please make sure the number is not already in use by another person and is in the format 07XX XXX XXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use the following format: 07XX XXX XXX</t>
-  </si>
-  <si>
     <t xml:space="preserve">secondary_phone</t>
   </si>
   <si>
@@ -528,6 +561,15 @@
     <t xml:space="preserve">../relationship_to_primary_caregiver = 'other'</t>
   </si>
   <si>
+    <t xml:space="preserve">n_member_assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_**Please submit household member assessment  form for ${display_name} after submitting this person registration.**_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_**Tafadhali wasilisha fomu ya tathmini ya mwanafamilia kwa ${display_name} baada ya kuwasilisha usajili wa mtu huyu.**_</t>
+  </si>
+  <si>
     <t xml:space="preserve">end repeat</t>
   </si>
   <si>
@@ -550,18 +592,6 @@
   </si>
   <si>
     <t xml:space="preserve">"NEW"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_hh_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${household_name}&lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -757,11 +787,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -794,13 +825,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -893,7 +917,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -918,7 +942,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,8 +954,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -947,18 +971,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1058,12 +1078,12 @@
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.43"/>
@@ -1072,8 +1092,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="52.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.71"/>
@@ -1386,7 +1407,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1399,20 +1420,14 @@
       <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1434,24 +1449,32 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="I9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1472,24 +1495,30 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="I10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1510,30 +1539,26 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1552,30 +1577,26 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1594,26 +1615,33 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="I13" s="6" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1632,26 +1660,33 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="I14" s="6" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1668,26 +1703,26 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1707,85 +1742,91 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
+      <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1808,88 +1849,82 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4" t="s">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -1905,7 +1940,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -1922,27 +1957,29 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
-        <v>78</v>
-      </c>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1960,13 +1997,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1975,12 +2012,12 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1997,26 +2034,22 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
-        <v>84</v>
+      <c r="A24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -2038,12 +2071,14 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2051,8 +2086,8 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>86</v>
+      <c r="K25" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -2074,16 +2109,16 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2091,7 +2126,9 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2111,164 +2148,152 @@
       <c r="AB26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
+      <c r="A27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
+      <c r="B30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>101</v>
@@ -2280,16 +2305,18 @@
         <v>103</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="M31" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2307,240 +2334,233 @@
       <c r="AB31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
+      <c r="A32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
+      <c r="C37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2551,12 +2571,8 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -2574,20 +2590,16 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2595,10 +2607,10 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -2616,10 +2628,10 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>16</v>
@@ -2631,12 +2643,14 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="M40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -2652,31 +2666,31 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>118</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="M41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -2692,32 +2706,32 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="M42" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -2734,19 +2748,17 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2754,7 +2766,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -2776,23 +2788,21 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2818,23 +2828,21 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
         <v>30</v>
       </c>
@@ -2862,10 +2870,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>37</v>
@@ -2873,21 +2881,15 @@
       <c r="D46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -2908,36 +2910,30 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H47" s="4"/>
-      <c r="I47" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -2956,29 +2952,33 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -2996,24 +2996,32 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="I49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -3032,26 +3040,28 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -3072,26 +3082,36 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="I51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
+      <c r="M51" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -3110,24 +3130,30 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="I52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -3148,10 +3174,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>16</v>
@@ -3163,12 +3189,14 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4" t="s">
-        <v>52</v>
+      <c r="K53" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="N53" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
@@ -3186,10 +3214,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>16</v>
@@ -3202,7 +3230,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -3224,10 +3252,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>16</v>
@@ -3240,7 +3268,7 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -3262,27 +3290,24 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>149</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="9" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
+      <c r="K56" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -3303,35 +3328,26 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="7" t="n">
-        <f aca="false">1</f>
-        <v>1</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -3350,35 +3366,26 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="7" t="n">
-        <f aca="false">1</f>
-        <v>1</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
@@ -3397,26 +3404,24 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -3437,28 +3442,24 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="K60" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -3478,57 +3479,77 @@
       <c r="AB60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
+      <c r="A61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="I62" s="7" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="M62" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -3546,102 +3567,119 @@
       <c r="AB62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
+      <c r="A63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="7" t="n">
+        <f aca="false">1</f>
+        <v>1</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="B64" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="C64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
@@ -3659,94 +3697,77 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="4"/>
+      <c r="A67" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -3766,125 +3787,315 @@
       <c r="AB68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
+      <c r="A69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>175</v>
+      <c r="A70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="D70" s="4"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="D71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A72" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+    </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4742,12 +4953,12 @@
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4811,7 +5022,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -4823,13 +5034,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -4854,13 +5065,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4885,13 +5096,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4916,13 +5127,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4947,13 +5158,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -4978,13 +5189,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5009,13 +5220,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5040,13 +5251,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>195</v>
+        <v>204</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -5071,13 +5282,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>196</v>
+        <v>106</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -5102,13 +5313,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>198</v>
+        <v>207</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5133,13 +5344,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>200</v>
+        <v>209</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -5164,13 +5375,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>202</v>
+        <v>211</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5195,13 +5406,13 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>204</v>
+        <v>213</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -5226,101 +5437,101 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>209</v>
+        <v>218</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>211</v>
+        <v>220</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>213</v>
+        <v>222</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>215</v>
+      <c r="A18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>217</v>
+      <c r="A19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>222</v>
+        <v>228</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6323,7 +6534,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.71"/>
@@ -6338,19 +6549,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
@@ -6375,19 +6586,19 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>231</v>
+        <v>240</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -7412,7 +7623,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.86"/>
@@ -7425,18 +7636,18 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="16"/>
+      <c r="A1" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="15"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -7486,7 +7697,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
@@ -7515,10 +7726,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="17"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -7544,10 +7755,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="18"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -7573,10 +7784,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -7602,10 +7813,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
